--- a/teaching/traditional_assets/database/data/israel/israel_software_internet.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_software_internet.xlsx
@@ -591,28 +591,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.419</v>
+        <v>0.371</v>
       </c>
       <c r="F2">
-        <v>0.202</v>
+        <v>0.113</v>
       </c>
       <c r="G2">
-        <v>0.3047037602331067</v>
+        <v>0.2566974088713219</v>
       </c>
       <c r="H2">
-        <v>-0.02650201193284307</v>
+        <v>-0.06971892841458059</v>
       </c>
       <c r="I2">
-        <v>-0.0845683917696296</v>
+        <v>-0.1756001963009653</v>
       </c>
       <c r="J2">
-        <v>-0.0845683917696296</v>
+        <v>-0.1756001963009653</v>
       </c>
       <c r="K2">
-        <v>-70.59999999999999</v>
+        <v>-175.3</v>
       </c>
       <c r="L2">
-        <v>-0.09796031635909531</v>
+        <v>-0.1924681598594642</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>283.2</v>
+        <v>158.5</v>
       </c>
       <c r="V2">
-        <v>0.04566121698752056</v>
+        <v>0.01139648254936079</v>
       </c>
       <c r="W2">
-        <v>-0.5264727815063386</v>
+        <v>-0.8817907444668008</v>
       </c>
       <c r="X2">
-        <v>0.09517001115245936</v>
+        <v>0.06216183653903015</v>
       </c>
       <c r="Y2">
-        <v>-0.621642792658798</v>
+        <v>-0.943952581005831</v>
       </c>
       <c r="Z2">
-        <v>3.670632196988401</v>
+        <v>2.537872381753242</v>
       </c>
       <c r="AA2">
-        <v>-0.3104194616771313</v>
+        <v>-0.4456508884226676</v>
       </c>
       <c r="AB2">
-        <v>0.09075383051291534</v>
+        <v>0.05985155143835302</v>
       </c>
       <c r="AC2">
-        <v>-0.4011732921900467</v>
+        <v>-0.5055024398610206</v>
       </c>
       <c r="AD2">
-        <v>409.1</v>
+        <v>824.2</v>
       </c>
       <c r="AE2">
-        <v>48.24219974186025</v>
+        <v>88.68329395459614</v>
       </c>
       <c r="AF2">
-        <v>457.3421997418603</v>
+        <v>912.8832939545962</v>
       </c>
       <c r="AG2">
-        <v>174.1421997418603</v>
+        <v>754.3832939545962</v>
       </c>
       <c r="AH2">
-        <v>0.06867472057757784</v>
+        <v>0.06159522309790968</v>
       </c>
       <c r="AI2">
-        <v>0.697016896523022</v>
+        <v>0.7733786970977841</v>
       </c>
       <c r="AJ2">
-        <v>0.02731067346870283</v>
+        <v>0.05145095234661526</v>
       </c>
       <c r="AK2">
-        <v>0.4669415256905666</v>
+        <v>0.7382284243391444</v>
       </c>
       <c r="AL2">
-        <v>9.970000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="AM2">
-        <v>0.3600000000000012</v>
+        <v>9.599999999999998</v>
       </c>
       <c r="AN2">
-        <v>-10.99731182795699</v>
+        <v>-6.662894098625708</v>
       </c>
       <c r="AO2">
-        <v>-6.489468405215646</v>
+        <v>-5.41156462585034</v>
       </c>
       <c r="AP2">
-        <v>-4.681241928544631</v>
+        <v>-6.098490654442977</v>
       </c>
       <c r="AQ2">
-        <v>-179.7222222222216</v>
+        <v>-16.57291666666667</v>
       </c>
     </row>
     <row r="3">
@@ -722,28 +722,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.419</v>
+        <v>0.371</v>
       </c>
       <c r="F3">
-        <v>0.202</v>
+        <v>0.113</v>
       </c>
       <c r="G3">
-        <v>0.3047037602331067</v>
+        <v>0.2566974088713219</v>
       </c>
       <c r="H3">
-        <v>-0.02650201193284307</v>
+        <v>-0.06971892841458059</v>
       </c>
       <c r="I3">
-        <v>-0.0845683917696296</v>
+        <v>-0.1756001963009653</v>
       </c>
       <c r="J3">
-        <v>-0.0845683917696296</v>
+        <v>-0.1756001963009653</v>
       </c>
       <c r="K3">
-        <v>-70.59999999999999</v>
+        <v>-175.3</v>
       </c>
       <c r="L3">
-        <v>-0.09796031635909531</v>
+        <v>-0.1924681598594642</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>283.2</v>
+        <v>158.5</v>
       </c>
       <c r="V3">
-        <v>0.04566121698752056</v>
+        <v>0.01139648254936079</v>
       </c>
       <c r="W3">
-        <v>-0.5264727815063386</v>
+        <v>-0.8817907444668008</v>
       </c>
       <c r="X3">
-        <v>0.09517001115245936</v>
+        <v>0.06216183653903015</v>
       </c>
       <c r="Y3">
-        <v>-0.621642792658798</v>
+        <v>-0.943952581005831</v>
       </c>
       <c r="Z3">
-        <v>3.670632196988401</v>
+        <v>2.537872381753242</v>
       </c>
       <c r="AA3">
-        <v>-0.3104194616771313</v>
+        <v>-0.4456508884226676</v>
       </c>
       <c r="AB3">
-        <v>0.09075383051291534</v>
+        <v>0.05985155143835302</v>
       </c>
       <c r="AC3">
-        <v>-0.4011732921900467</v>
+        <v>-0.5055024398610206</v>
       </c>
       <c r="AD3">
-        <v>409.1</v>
+        <v>824.2</v>
       </c>
       <c r="AE3">
-        <v>48.24219974186025</v>
+        <v>88.68329395459614</v>
       </c>
       <c r="AF3">
-        <v>457.3421997418603</v>
+        <v>912.8832939545962</v>
       </c>
       <c r="AG3">
-        <v>174.1421997418603</v>
+        <v>754.3832939545962</v>
       </c>
       <c r="AH3">
-        <v>0.06867472057757784</v>
+        <v>0.06159522309790968</v>
       </c>
       <c r="AI3">
-        <v>0.697016896523022</v>
+        <v>0.7733786970977841</v>
       </c>
       <c r="AJ3">
-        <v>0.02731067346870283</v>
+        <v>0.05145095234661526</v>
       </c>
       <c r="AK3">
-        <v>0.4669415256905666</v>
+        <v>0.7382284243391444</v>
       </c>
       <c r="AL3">
-        <v>9.970000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="AM3">
-        <v>0.3600000000000012</v>
+        <v>9.599999999999998</v>
       </c>
       <c r="AN3">
-        <v>-10.99731182795699</v>
+        <v>-6.662894098625708</v>
       </c>
       <c r="AO3">
-        <v>-6.489468405215646</v>
+        <v>-5.41156462585034</v>
       </c>
       <c r="AP3">
-        <v>-4.681241928544631</v>
+        <v>-6.098490654442977</v>
       </c>
       <c r="AQ3">
-        <v>-179.7222222222216</v>
+        <v>-16.57291666666667</v>
       </c>
     </row>
   </sheetData>
